--- a/dokument/statistik - Kopia.xlsx
+++ b/dokument/statistik - Kopia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="20955" windowHeight="9465"/>
+    <workbookView xWindow="360" yWindow="180" windowWidth="20955" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="106">
   <si>
     <t>20-meter</t>
   </si>
@@ -316,9 +316,6 @@
     <t>Fråga i formuläret</t>
   </si>
   <si>
-    <t>automatiskt</t>
-  </si>
-  <si>
     <t>osäker</t>
   </si>
   <si>
@@ -329,6 +326,12 @@
   </si>
   <si>
     <t>om skyddsavstånd mellan täkt och borrhål inte klaras ska skyddsåtgärder redovisas</t>
+  </si>
+  <si>
+    <t>Täcks upp automatiskt</t>
+  </si>
+  <si>
+    <t>Ansökningsnummer</t>
   </si>
 </sst>
 </file>
@@ -358,7 +361,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -389,7 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -423,7 +426,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -449,6 +452,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -462,8 +471,8 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bra" xfId="2" builtinId="26"/>
+    <cellStyle name="Färg6" xfId="3" builtinId="49"/>
     <cellStyle name="Indata" xfId="1" builtinId="20"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -705,17 +714,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -740,9 +749,15 @@
       <c r="B2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>105</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -806,7 +821,7 @@
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>3</v>
@@ -822,16 +837,16 @@
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13">
+      <c r="C8" s="14"/>
+      <c r="D8" s="15">
         <v>1286</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -850,14 +865,14 @@
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="1"/>
@@ -882,7 +897,7 @@
         <v>1.3</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="10" t="s">
@@ -971,16 +986,16 @@
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13">
+      <c r="C18" s="14"/>
+      <c r="D18" s="15">
         <v>2848</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -1046,7 +1061,7 @@
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>72</v>
@@ -1088,7 +1103,7 @@
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>57</v>
@@ -1133,7 +1148,7 @@
         <v>13</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="10">
